--- a/temperature.xlsx
+++ b/temperature.xlsx
@@ -14,7 +14,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="83">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="60">
+  <x:si>
+    <x:t>제주</x:t>
+  </x:si>
+  <x:si>
+    <x:t>충북</x:t>
+  </x:si>
   <x:si>
     <x:t>지역</x:t>
   </x:si>
@@ -22,247 +28,172 @@
     <x:t>강원</x:t>
   </x:si>
   <x:si>
+    <x:t>경남</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서울</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>광주</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전남</x:t>
+  </x:si>
+  <x:si>
     <x:t>경기</x:t>
   </x:si>
   <x:si>
-    <x:t>경남</x:t>
-  </x:si>
-  <x:si>
-    <x:t>광주</x:t>
+    <x:t>대구</x:t>
   </x:si>
   <x:si>
     <x:t>경북</x:t>
   </x:si>
   <x:si>
-    <x:t>대구</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서울</x:t>
-  </x:si>
-  <x:si>
     <x:t>울산</x:t>
   </x:si>
   <x:si>
+    <x:t>전북</x:t>
+  </x:si>
+  <x:si>
     <x:t>인천</x:t>
   </x:si>
   <x:si>
-    <x:t>전남</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전북</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제주</x:t>
-  </x:si>
-  <x:si>
     <x:t>충남</x:t>
   </x:si>
   <x:si>
-    <x:t>충북</x:t>
+    <x:t>21 / 26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16 / 29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18 / 26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19 / 31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21 / 30</x:t>
   </x:si>
   <x:si>
     <x:t>세종특별자치시</x:t>
   </x:si>
   <x:si>
+    <x:t>19 / 26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18 /28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16 / 25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20 / 27</x:t>
+  </x:si>
+  <x:si>
     <x:t>17 / 29</x:t>
   </x:si>
   <x:si>
-    <x:t>21 / 30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18 / 26</x:t>
+    <x:t>19 / 29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16 / 28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18 / 29</x:t>
   </x:si>
   <x:si>
     <x:t>18 / 27</x:t>
   </x:si>
   <x:si>
-    <x:t>19 / 26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18 /28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19 / 31</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20 / 27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19 / 29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19 / 26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16 / 25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18 / 29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16 / 28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17 / 29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16 / 29</x:t>
-  </x:si>
-  <x:si>
     <x:t>21 / 27</x:t>
   </x:si>
   <x:si>
-    <x:t>21 / 26</x:t>
+    <x:t>16 / 24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19 / 28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19 / 24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19 / 25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17 / 26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18 / 25</x:t>
   </x:si>
   <x:si>
     <x:t>17 / 24</x:t>
   </x:si>
   <x:si>
-    <x:t>20 / 27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20일(수)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15일(금)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19일(화)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21일(목)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18일(월)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17일(일)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22일(금)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16일(토)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19 / 28</x:t>
-  </x:si>
-  <x:si>
     <x:t>16 / 20</x:t>
   </x:si>
   <x:si>
     <x:t>18 / 28</x:t>
   </x:si>
   <x:si>
-    <x:t>18 / 25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19 / 24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16 / 24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19 / 25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17 / 26</x:t>
-  </x:si>
-  <x:si>
     <x:t>17 / 27</x:t>
   </x:si>
   <x:si>
-    <x:t>19 / 25</x:t>
-  </x:si>
-  <x:si>
     <x:t>20 / 30</x:t>
   </x:si>
   <x:si>
+    <x:t>21 / 29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17 / 21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17 / 28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20 / 26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17 / 25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20 / 29</x:t>
+  </x:si>
+  <x:si>
     <x:t>18 / 22</x:t>
   </x:si>
   <x:si>
+    <x:t>16 / 27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19 / 30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20 / 28</x:t>
+  </x:si>
+  <x:si>
     <x:t>18 / 23</x:t>
   </x:si>
   <x:si>
-    <x:t>19 / 30</x:t>
-  </x:si>
-  <x:si>
     <x:t>20 / 25</x:t>
   </x:si>
   <x:si>
+    <x:t>21 / 28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16 / 23</x:t>
+  </x:si>
+  <x:si>
     <x:t>18 / 24</x:t>
   </x:si>
   <x:si>
-    <x:t>21 / 28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16 / 23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16 / 27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20 / 28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17 / 25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20 / 28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18 / 26</x:t>
-  </x:si>
-  <x:si>
     <x:t>18 / 30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20 / 30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20 / 29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21 / 29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17 / 21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17 / 28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18 / 28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17 / 28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16 / 28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20 / 26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19 / 29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18 / 29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20 / 26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19 / 28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20 / 29</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -387,11 +318,14 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="2">
+  <x:cellXfs count="3">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellXfs>
@@ -1032,551 +966,552 @@
   <x:dimension ref="A1:J18"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="J18" activeCellId="0" sqref="J18:J18"/>
+      <x:selection activeCell="B1" activeCellId="0" sqref="B1:I1"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
   <x:cols>
     <x:col min="1" max="1" width="13.89453125" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="9" width="10.65234375" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:9">
       <x:c r="A1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B1" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="C1" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="D1" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="E1" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="F1" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="G1" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="H1" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="I1" t="s">
-        <x:v>43</x:v>
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B1" s="2">
+        <x:v>43266</x:v>
+      </x:c>
+      <x:c r="C1" s="2">
+        <x:v>43267</x:v>
+      </x:c>
+      <x:c r="D1" s="2">
+        <x:v>43268</x:v>
+      </x:c>
+      <x:c r="E1" s="2">
+        <x:v>43269</x:v>
+      </x:c>
+      <x:c r="F1" s="2">
+        <x:v>43270</x:v>
+      </x:c>
+      <x:c r="G1" s="2">
+        <x:v>43271</x:v>
+      </x:c>
+      <x:c r="H1" s="2">
+        <x:v>43272</x:v>
+      </x:c>
+      <x:c r="I1" s="2">
+        <x:v>43273</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:10">
       <x:c r="A2" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C2" t="s">
-        <x:v>46</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D2" t="s">
-        <x:v>35</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E2" t="s">
-        <x:v>48</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F2" t="s">
-        <x:v>51</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G2" t="s">
-        <x:v>77</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="H2" t="s">
-        <x:v>33</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I2" t="s">
-        <x:v>34</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="J2" s="1"/>
     </x:row>
     <x:row r="3" spans="1:10">
       <x:c r="A3" t="s">
-        <x:v>2</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B3" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C3" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D3" t="s">
-        <x:v>47</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E3" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F3" t="s">
-        <x:v>45</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G3" t="s">
-        <x:v>78</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H3" t="s">
-        <x:v>66</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I3" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J3" s="1"/>
     </x:row>
     <x:row r="4" spans="1:10">
       <x:c r="A4" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B4" t="s">
-        <x:v>53</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C4" t="s">
-        <x:v>52</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D4" t="s">
-        <x:v>52</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E4" t="s">
-        <x:v>74</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F4" t="s">
-        <x:v>45</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G4" t="s">
-        <x:v>45</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H4" t="s">
-        <x:v>78</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I4" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="J4" s="1"/>
     </x:row>
     <x:row r="5" spans="1:10">
       <x:c r="A5" t="s">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B5" t="s">
-        <x:v>56</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C5" t="s">
-        <x:v>57</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D5" t="s">
-        <x:v>21</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E5" t="s">
-        <x:v>66</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F5" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G5" t="s">
-        <x:v>66</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H5" t="s">
-        <x:v>66</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I5" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="J5" s="1"/>
     </x:row>
     <x:row r="6" spans="1:10">
       <x:c r="A6" t="s">
-        <x:v>4</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B6" t="s">
-        <x:v>79</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C6" t="s">
-        <x:v>79</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D6" t="s">
-        <x:v>78</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E6" t="s">
-        <x:v>78</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F6" t="s">
-        <x:v>55</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G6" t="s">
-        <x:v>55</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="H6" t="s">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I6" t="s">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="J6" s="1"/>
     </x:row>
     <x:row r="7" spans="1:10">
       <x:c r="A7" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B7" t="s">
-        <x:v>52</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C7" t="s">
-        <x:v>63</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D7" t="s">
-        <x:v>18</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E7" t="s">
-        <x:v>24</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F7" t="s">
-        <x:v>55</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G7" t="s">
-        <x:v>55</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="H7" t="s">
-        <x:v>70</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="I7" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="J7" s="1"/>
     </x:row>
     <x:row r="8" spans="1:9">
       <x:c r="A8" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C8" t="s">
-        <x:v>31</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D8" t="s">
-        <x:v>31</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E8" t="s">
-        <x:v>68</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="F8" t="s">
-        <x:v>68</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="G8" t="s">
-        <x:v>58</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H8" t="s">
-        <x:v>69</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="I8" t="s">
-        <x:v>71</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:10">
       <x:c r="A9" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B9" t="s">
-        <x:v>48</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C9" t="s">
-        <x:v>60</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D9" t="s">
-        <x:v>60</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E9" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F9" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G9" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H9" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="I9" t="s">
-        <x:v>59</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="J9" s="1"/>
     </x:row>
     <x:row r="10" spans="1:9">
       <x:c r="A10" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C10" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D10" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E10" t="s">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F10" t="s">
-        <x:v>81</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G10" t="s">
-        <x:v>82</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="H10" t="s">
-        <x:v>64</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I10" t="s">
-        <x:v>66</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
       <x:c r="A11" t="s">
-        <x:v>17</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B11" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C11" t="s">
-        <x:v>32</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D11" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E11" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F11" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G11" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="E11" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="F11" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="G11" t="s">
-        <x:v>29</x:v>
-      </x:c>
       <x:c r="H11" t="s">
-        <x:v>58</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="I11" t="s">
-        <x:v>70</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:10">
       <x:c r="A12" t="s">
-        <x:v>10</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B12" t="s">
-        <x:v>50</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C12" t="s">
-        <x:v>62</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D12" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="F12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="G12" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="H12" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="E12" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="F12" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="G12" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="H12" t="s">
-        <x:v>78</x:v>
-      </x:c>
       <x:c r="I12" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="J12" s="1"/>
     </x:row>
     <x:row r="13" spans="1:9">
       <x:c r="A13" t="s">
-        <x:v>11</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B13" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C13" t="s">
-        <x:v>65</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D13" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E13" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F13" t="s">
-        <x:v>54</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G13" t="s">
-        <x:v>27</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H13" t="s">
-        <x:v>49</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="I13" t="s">
-        <x:v>51</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:10">
       <x:c r="A14" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B14" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C14" t="s">
-        <x:v>51</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D14" t="s">
-        <x:v>51</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E14" t="s">
-        <x:v>51</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F14" t="s">
-        <x:v>77</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="G14" t="s">
-        <x:v>77</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="H14" t="s">
-        <x:v>34</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I14" t="s">
-        <x:v>34</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="J14" s="1"/>
     </x:row>
     <x:row r="15" spans="1:10">
       <x:c r="A15" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B15" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C15" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D15" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E15" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="F15" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G15" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="H15" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="I15" t="s">
         <x:v>53</x:v>
-      </x:c>
-      <x:c r="C15" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="D15" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E15" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="F15" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="G15" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="H15" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="I15" t="s">
-        <x:v>64</x:v>
       </x:c>
       <x:c r="J15" s="1"/>
     </x:row>
     <x:row r="16" spans="1:10">
       <x:c r="A16" t="s">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B16" t="s">
-        <x:v>59</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C16" t="s">
-        <x:v>59</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D16" t="s">
-        <x:v>80</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E16" t="s">
-        <x:v>80</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="F16" t="s">
-        <x:v>80</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="G16" t="s">
-        <x:v>80</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="H16" t="s">
-        <x:v>33</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I16" t="s">
-        <x:v>33</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="J16" s="1"/>
     </x:row>
     <x:row r="17" spans="1:10">
       <x:c r="A17" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B17" t="s">
-        <x:v>75</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C17" t="s">
-        <x:v>76</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D17" t="s">
-        <x:v>53</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E17" t="s">
-        <x:v>74</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F17" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G17" t="s">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H17" t="s">
-        <x:v>82</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="I17" t="s">
-        <x:v>61</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="J17" s="1"/>
     </x:row>
     <x:row r="18" spans="1:10">
       <x:c r="A18" t="s">
-        <x:v>16</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B18" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C18" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D18" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E18" t="s">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F18" t="s">
-        <x:v>69</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G18" t="s">
-        <x:v>69</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="H18" t="s">
-        <x:v>82</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="I18" t="s">
-        <x:v>61</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="J18" s="1"/>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
--- a/temperature.xlsx
+++ b/temperature.xlsx
@@ -4,7 +4,7 @@
   <x:fileVersion appName="HCell" lastEdited="9.6" lowestEdited="9.6" rupBuild="1.4847"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="22668" windowHeight="9036" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="12036" windowHeight="6480" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet6" sheetId="1" r:id="rId4"/>
@@ -14,186 +14,210 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="60">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="68">
+  <x:si>
+    <x:t>지역</x:t>
+  </x:si>
+  <x:si>
+    <x:t>울산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경남</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전북</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전남</x:t>
+  </x:si>
+  <x:si>
+    <x:t>광주</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인천</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서울</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경북</x:t>
+  </x:si>
+  <x:si>
+    <x:t>충북</x:t>
+  </x:si>
   <x:si>
     <x:t>제주</x:t>
   </x:si>
   <x:si>
-    <x:t>충북</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지역</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경남</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서울</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>광주</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전남</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경기</x:t>
+    <x:t>충남</x:t>
   </x:si>
   <x:si>
     <x:t>대구</x:t>
   </x:si>
   <x:si>
-    <x:t>경북</x:t>
-  </x:si>
-  <x:si>
-    <x:t>울산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전북</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인천</x:t>
-  </x:si>
-  <x:si>
-    <x:t>충남</x:t>
+    <x:t>세종특별자치시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-06-16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-06-20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-06-17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-06-19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-06-18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-06-21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-06-15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-06-22</x:t>
   </x:si>
   <x:si>
     <x:t>21 / 26</x:t>
   </x:si>
   <x:si>
+    <x:t>19 / 26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20 / 27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19 / 24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17 / 27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18 /28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18 / 26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17 / 29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16 / 28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19 / 29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18 / 27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19 / 25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17 / 24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21 / 30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16 / 20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16 / 25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18 / 29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17 / 26</x:t>
+  </x:si>
+  <x:si>
     <x:t>16 / 29</x:t>
   </x:si>
   <x:si>
-    <x:t>18 / 26</x:t>
+    <x:t>20 / 30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21 / 29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17 / 21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18 / 28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17 / 28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16 / 24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19 / 28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21 / 27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18 / 25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20 / 26</x:t>
   </x:si>
   <x:si>
     <x:t>19 / 31</x:t>
   </x:si>
   <x:si>
-    <x:t>21 / 30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>세종특별자치시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19 / 26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18 /28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16 / 25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20 / 27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17 / 29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19 / 29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16 / 28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18 / 29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18 / 27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21 / 27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16 / 24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19 / 28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19 / 24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19 / 25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17 / 26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18 / 25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17 / 24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16 / 20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18 / 28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17 / 27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20 / 30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21 / 29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17 / 21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17 / 28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20 / 26</x:t>
+    <x:t>16 / 27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16 / 23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18 / 23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18 / 24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20 / 29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20 / 25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19 / 30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20 / 28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21 / 28</x:t>
   </x:si>
   <x:si>
     <x:t>17 / 25</x:t>
   </x:si>
   <x:si>
-    <x:t>20 / 29</x:t>
+    <x:t>18 / 30</x:t>
   </x:si>
   <x:si>
     <x:t>18 / 22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16 / 27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19 / 30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20 / 28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18 / 23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20 / 25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21 / 28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16 / 23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18 / 24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18 / 30</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -325,7 +349,7 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellXfs>
@@ -965,8 +989,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:J18"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="B1" activeCellId="0" sqref="B1:I1"/>
+    <x:sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="L1" activeCellId="0" sqref="L1:L1"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
@@ -977,120 +1001,120 @@
   <x:sheetData>
     <x:row r="1" spans="1:9">
       <x:c r="A1" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B1" s="2">
-        <x:v>43266</x:v>
-      </x:c>
-      <x:c r="C1" s="2">
-        <x:v>43267</x:v>
-      </x:c>
-      <x:c r="D1" s="2">
-        <x:v>43268</x:v>
-      </x:c>
-      <x:c r="E1" s="2">
-        <x:v>43269</x:v>
-      </x:c>
-      <x:c r="F1" s="2">
-        <x:v>43270</x:v>
-      </x:c>
-      <x:c r="G1" s="2">
-        <x:v>43271</x:v>
-      </x:c>
-      <x:c r="H1" s="2">
-        <x:v>43272</x:v>
-      </x:c>
-      <x:c r="I1" s="2">
-        <x:v>43273</x:v>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="2" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C1" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D1" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E1" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F1" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G1" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H1" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I1" s="2" t="s">
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:10">
       <x:c r="A2" t="s">
-        <x:v>3</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C2" t="s">
         <x:v>40</x:v>
       </x:c>
       <x:c r="D2" t="s">
-        <x:v>39</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E2" t="s">
-        <x:v>38</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F2" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G2" t="s">
-        <x:v>47</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="H2" t="s">
-        <x:v>32</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="I2" t="s">
-        <x:v>17</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J2" s="1"/>
     </x:row>
     <x:row r="3" spans="1:10">
       <x:c r="A3" t="s">
-        <x:v>10</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B3" t="s">
-        <x:v>30</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C3" t="s">
-        <x:v>30</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D3" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E3" t="s">
-        <x:v>30</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F3" t="s">
-        <x:v>34</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H3" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="I3" s="1" t="s">
         <x:v>28</x:v>
-      </x:c>
-      <x:c r="H3" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="I3" s="1" t="s">
-        <x:v>26</x:v>
       </x:c>
       <x:c r="J3" s="1"/>
     </x:row>
     <x:row r="4" spans="1:10">
       <x:c r="A4" t="s">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B4" t="s">
-        <x:v>42</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C4" t="s">
-        <x:v>37</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="D4" t="s">
-        <x:v>37</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E4" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F4" t="s">
-        <x:v>34</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G4" t="s">
-        <x:v>34</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H4" t="s">
-        <x:v>28</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="I4" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="J4" s="1"/>
     </x:row>
@@ -1099,419 +1123,419 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B5" t="s">
-        <x:v>50</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C5" t="s">
-        <x:v>54</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D5" t="s">
-        <x:v>31</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E5" t="s">
-        <x:v>53</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F5" t="s">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G5" t="s">
-        <x:v>53</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="H5" t="s">
-        <x:v>53</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="I5" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="J5" s="1"/>
     </x:row>
     <x:row r="6" spans="1:10">
       <x:c r="A6" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B6" t="s">
-        <x:v>30</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C6" t="s">
-        <x:v>30</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D6" t="s">
-        <x:v>28</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E6" t="s">
-        <x:v>28</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F6" t="s">
-        <x:v>43</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="G6" t="s">
-        <x:v>43</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H6" t="s">
-        <x:v>21</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I6" t="s">
-        <x:v>21</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="J6" s="1"/>
     </x:row>
     <x:row r="7" spans="1:10">
       <x:c r="A7" t="s">
-        <x:v>11</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B7" t="s">
-        <x:v>37</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C7" t="s">
-        <x:v>51</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D7" t="s">
-        <x:v>27</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E7" t="s">
-        <x:v>20</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="F7" t="s">
-        <x:v>43</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="G7" t="s">
-        <x:v>43</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H7" t="s">
-        <x:v>49</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="I7" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="J7" s="1"/>
     </x:row>
     <x:row r="8" spans="1:9">
       <x:c r="A8" t="s">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C8" t="s">
-        <x:v>27</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D8" t="s">
-        <x:v>27</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E8" t="s">
-        <x:v>59</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F8" t="s">
-        <x:v>59</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="G8" t="s">
-        <x:v>52</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H8" t="s">
-        <x:v>43</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="I8" t="s">
-        <x:v>44</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:10">
       <x:c r="A9" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B9" t="s">
-        <x:v>38</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C9" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D9" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E9" t="s">
-        <x:v>23</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F9" t="s">
-        <x:v>23</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G9" t="s">
-        <x:v>23</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H9" t="s">
-        <x:v>23</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="I9" t="s">
-        <x:v>55</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="J9" s="1"/>
     </x:row>
     <x:row r="10" spans="1:9">
       <x:c r="A10" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C10" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D10" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E10" t="s">
-        <x:v>28</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F10" t="s">
-        <x:v>34</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G10" t="s">
-        <x:v>49</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="H10" t="s">
-        <x:v>53</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="I10" t="s">
-        <x:v>53</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
       <x:c r="A11" t="s">
-        <x:v>22</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B11" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C11" t="s">
-        <x:v>18</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D11" t="s">
-        <x:v>29</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E11" t="s">
-        <x:v>27</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F11" t="s">
-        <x:v>27</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G11" t="s">
-        <x:v>30</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="H11" t="s">
-        <x:v>52</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="I11" t="s">
-        <x:v>49</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:10">
       <x:c r="A12" t="s">
-        <x:v>13</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B12" t="s">
-        <x:v>33</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C12" t="s">
         <x:v>57</x:v>
       </x:c>
       <x:c r="D12" t="s">
-        <x:v>25</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E12" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F12" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G12" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H12" t="s">
-        <x:v>28</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="I12" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="J12" s="1"/>
     </x:row>
     <x:row r="13" spans="1:9">
       <x:c r="A13" t="s">
-        <x:v>15</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B13" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C13" t="s">
-        <x:v>48</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D13" t="s">
-        <x:v>19</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E13" t="s">
-        <x:v>19</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F13" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G13" t="s">
-        <x:v>23</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H13" t="s">
-        <x:v>35</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="I13" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:10">
       <x:c r="A14" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B14" t="s">
-        <x:v>23</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C14" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D14" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E14" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F14" t="s">
-        <x:v>47</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G14" t="s">
-        <x:v>47</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="H14" t="s">
-        <x:v>17</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="I14" t="s">
-        <x:v>17</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J14" s="1"/>
     </x:row>
     <x:row r="15" spans="1:10">
       <x:c r="A15" t="s">
-        <x:v>14</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B15" t="s">
-        <x:v>42</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C15" t="s">
-        <x:v>42</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D15" t="s">
-        <x:v>31</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E15" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F15" t="s">
-        <x:v>28</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G15" t="s">
-        <x:v>28</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H15" t="s">
-        <x:v>28</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="I15" t="s">
-        <x:v>53</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="J15" s="1"/>
     </x:row>
     <x:row r="16" spans="1:10">
       <x:c r="A16" t="s">
-        <x:v>0</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B16" t="s">
-        <x:v>55</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C16" t="s">
-        <x:v>55</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D16" t="s">
-        <x:v>47</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E16" t="s">
-        <x:v>47</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F16" t="s">
-        <x:v>47</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G16" t="s">
-        <x:v>47</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="H16" t="s">
-        <x:v>32</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="I16" t="s">
-        <x:v>32</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="J16" s="1"/>
     </x:row>
     <x:row r="17" spans="1:10">
       <x:c r="A17" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B17" t="s">
-        <x:v>46</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C17" t="s">
-        <x:v>29</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D17" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E17" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="F17" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="E17" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="F17" t="s">
-        <x:v>30</x:v>
-      </x:c>
       <x:c r="G17" t="s">
-        <x:v>28</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H17" t="s">
-        <x:v>49</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="I17" t="s">
-        <x:v>56</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="J17" s="1"/>
     </x:row>
     <x:row r="18" spans="1:10">
       <x:c r="A18" t="s">
-        <x:v>1</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B18" t="s">
-        <x:v>30</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C18" t="s">
-        <x:v>30</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D18" t="s">
-        <x:v>30</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E18" t="s">
-        <x:v>28</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F18" t="s">
-        <x:v>43</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="G18" t="s">
-        <x:v>43</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H18" t="s">
-        <x:v>49</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="I18" t="s">
-        <x:v>56</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="J18" s="1"/>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
--- a/temperature.xlsx
+++ b/temperature.xlsx
@@ -4,220 +4,354 @@
   <x:fileVersion appName="HCell" lastEdited="9.6" lowestEdited="9.6" rupBuild="1.4847"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="12036" windowHeight="6480" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="22668" windowHeight="9036" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet6" sheetId="1" r:id="rId4"/>
+    <x:sheet name="Sheet5" sheetId="1" r:id="rId4"/>
   </x:sheets>
   <x:calcPr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" mc:Ignorable="hs" hs:hclCalcId="904"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="68">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="91">
+  <x:si>
+    <x:t>전북</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서울</x:t>
+  </x:si>
+  <x:si>
+    <x:t>울산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>광주</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제주</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전남</x:t>
+  </x:si>
+  <x:si>
+    <x:t>충남</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인천</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경남</x:t>
+  </x:si>
   <x:si>
     <x:t>지역</x:t>
   </x:si>
   <x:si>
-    <x:t>울산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경남</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전북</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전남</x:t>
-  </x:si>
-  <x:si>
-    <x:t>광주</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인천</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서울</x:t>
+    <x:t>충북</x:t>
   </x:si>
   <x:si>
     <x:t>경북</x:t>
   </x:si>
   <x:si>
-    <x:t>충북</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제주</x:t>
-  </x:si>
-  <x:si>
-    <x:t>충남</x:t>
-  </x:si>
-  <x:si>
     <x:t>대구</x:t>
   </x:si>
   <x:si>
+    <x:t>2018-06-16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-06-20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-06-17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-06-19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-06-15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-06-22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-06-18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-06-21</x:t>
+  </x:si>
+  <x:si>
     <x:t>세종특별자치시</x:t>
   </x:si>
   <x:si>
-    <x:t>2018-06-16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-06-20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-06-17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-06-19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-06-18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-06-21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-06-15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-06-22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21 / 26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19 / 26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20 / 27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19 / 24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17 / 27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18 /28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18 / 26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17 / 29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16 / 28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19 / 29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18 / 27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19 / 25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17 / 24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21 / 30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16 / 20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16 / 25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18 / 29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17 / 26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16 / 29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20 / 30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21 / 29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17 / 21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18 / 28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17 / 28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16 / 24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19 / 28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21 / 27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18 / 25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20 / 26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19 / 31</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16 / 27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16 / 23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18 / 23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18 / 24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20 / 29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20 / 25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19 / 30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20 / 28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21 / 28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17 / 25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18 / 30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18 / 22</x:t>
+    <x:t xml:space="preserve">구름조금 / 19 / 30
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">구름조금 / 21 / 27
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">구름조금 / 20 / 29
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">구름조금 / 19 / 26
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">구름조금 / 19 / 24
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">구름조금 / 18 / 28
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">구름조금 / 21 / 30
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">구름조금 / 21 / 26
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">구름조금 / 19 / 29
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">구름조금 / 20 / 28
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">구름조금 / 18 / 29
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">구름조금 / 20 / 30
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">구름조금 / 21 / 27
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">구름많음 / 21 / 26
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">구름많음 / 18 / 29
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">구름많음 / 19 / 29
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">구름많음 / 16 / 25
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">구름조금 / 20 / 30
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">구름많음 / 18 / 28
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">구름많음 / 18 / 27
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">구름조금 / 18 / 29
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">구름많음 / 20 / 27
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">구름많음 / 21 / 30
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">구름많음 / 20 / 28
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">구름많음 / 16 / 29
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">구름많음 / 17 / 25
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">구름조금 / 19 / 28
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">구름조금 / 17 / 29
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">구름조금 / 18 / 26
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">구름많음 / 17 / 29
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">구름많음 / 21 / 27
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">구름많음 / 18 / 24
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">구름많음 / 20 / 26
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">구름조금 / 19 / 26
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">구름많음 / 17 / 26
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">구름많음 / 16 / 23
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">구름조금 / 18 / 30
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">구름조금 / 20 / 28
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">구름조금 / 18 / 28
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">구름조금 / 20 / 27
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">구름많음 / 18 /28
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">구름조금 / 19 / 31
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">구름조금 / 20 / 29
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">구름많음 / 16 / 27
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">구름많음 / 19 / 25
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">구름많음 / 16 / 28
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">구름많음 / 21 / 29
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">구름조금 / 19 / 29
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">구름많음 / 20 / 29
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">구름많음 / 21 / 28
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">구름많음 / 18 / 25
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">구름많음 / 20 / 25
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">구름많음 / 17 / 28
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">구름많음 / 18 / 26
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">구름많음 / 18 / 22
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">구름많음 / 17 / 27
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">구름많음 / 18 / 23
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">구름많음 / 19 / 26
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">구름많음 / 16 / 24
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">구름많음 /17 / 21
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">구름많음 / 16 / 20
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">구름많음 / 17 / 24
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">구름조금 / 18 / 25
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">구름조금 / 19 / 25
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">구름조금 / 20 / 26
+</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -342,14 +476,17 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="3">
+  <x:cellXfs count="4">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellXfs>
@@ -987,555 +1124,552 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:J18"/>
+  <x:dimension ref="A1:Q18"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="L1" activeCellId="0" sqref="L1:L1"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="I1" activeCellId="0" sqref="I1:I1"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
   <x:cols>
     <x:col min="1" max="1" width="13.89453125" bestFit="1" customWidth="1"/>
-    <x:col min="2" max="9" width="10.65234375" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="9" width="16.828125" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:9">
       <x:c r="A1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B1" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B1" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C1" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D1" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E1" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F1" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G1" s="1" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H1" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C1" s="2" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="D1" s="2" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="E1" s="2" t="s">
+      <x:c r="I1" s="1" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="F1" s="2" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G1" s="2" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H1" s="2" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="I1" s="2" t="s">
-        <x:v>25</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:10">
+    </x:row>
+    <x:row r="2" spans="1:9" ht="49.149999999999999">
       <x:c r="A2" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B2" s="1" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="C2" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="D2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B2" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C2" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="D2" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="E2" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="F2" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="G2" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="H2" s="2" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="E2" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="F2" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="G2" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="H2" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="I2" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="J2" s="1"/>
-    </x:row>
-    <x:row r="3" spans="1:10">
+      <x:c r="I2" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:17" ht="49.149999999999999">
       <x:c r="A3" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="B3" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="C3" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="D3" t="s">
+      <x:c r="B3" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C3" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="D3" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="E3" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="F3" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="G3" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="H3" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="I3" s="2" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="Q3" s="3"/>
+    </x:row>
+    <x:row r="4" spans="1:17" ht="49.149999999999999">
+      <x:c r="A4" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B4" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="C4" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D4" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="E4" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="F4" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="G4" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H4" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="I4" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="Q4" s="3"/>
+    </x:row>
+    <x:row r="5" spans="1:17" ht="49.149999999999999">
+      <x:c r="A5" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="D5" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="E5" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="F5" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="G5" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="H5" s="2" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="I5" s="2" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="Q5" s="3"/>
+    </x:row>
+    <x:row r="6" spans="1:9" ht="49.149999999999999">
+      <x:c r="A6" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="D6" s="2" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="E6" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="F6" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G6" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H6" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="I6" s="2" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="E3" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F3" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="G3" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="H3" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="I3" s="1" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="J3" s="1"/>
-    </x:row>
-    <x:row r="4" spans="1:10">
-      <x:c r="A4" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B4" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="C4" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="D4" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="E4" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="F4" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="G4" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="H4" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="I4" s="1" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="J4" s="1"/>
-    </x:row>
-    <x:row r="5" spans="1:10">
-      <x:c r="A5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="B5" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="C5" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="D5" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="E5" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="F5" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="G5" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="H5" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="I5" s="1" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="J5" s="1"/>
-    </x:row>
-    <x:row r="6" spans="1:10">
-      <x:c r="A6" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B6" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="C6" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="D6" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="E6" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="F6" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="G6" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="H6" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="I6" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="J6" s="1"/>
-    </x:row>
-    <x:row r="7" spans="1:10">
+    </x:row>
+    <x:row r="7" spans="1:17" ht="49.149999999999999">
       <x:c r="A7" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="B7" t="s">
+      <x:c r="B7" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D7" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="E7" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="F7" s="2" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="C7" t="s">
+      <x:c r="G7" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H7" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="I7" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="Q7" s="3"/>
+    </x:row>
+    <x:row r="8" spans="1:10" ht="49.149999999999999">
+      <x:c r="A8" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B8" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="D8" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="E8" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="F8" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="G8" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H8" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="I8" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="J8" s="3"/>
+    </x:row>
+    <x:row r="9" spans="1:9" ht="49.149999999999999">
+      <x:c r="A9" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B9" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="D9" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="E9" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="F9" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="G9" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="H9" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="I9" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:11" ht="49.149999999999999">
+      <x:c r="A10" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B10" s="2" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C10" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="D10" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="E10" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="F10" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="G10" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="H10" s="2" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="I10" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="J10" s="3"/>
+      <x:c r="K10" s="3"/>
+    </x:row>
+    <x:row r="11" spans="1:10" ht="49.149999999999999">
+      <x:c r="A11" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B11" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="C11" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D11" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="E11" s="2" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F11" s="2" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="G11" s="2" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="H11" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="I11" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="J11" s="3"/>
+    </x:row>
+    <x:row r="12" spans="1:17" ht="49.149999999999999">
+      <x:c r="A12" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B12" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="C12" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="D12" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="E12" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="F12" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="G12" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="H12" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="I12" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="Q12" s="3"/>
+    </x:row>
+    <x:row r="13" spans="1:10" ht="49.149999999999999">
+      <x:c r="A13" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B13" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D13" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E13" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="F13" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="G13" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H13" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I13" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="J13" s="3"/>
+    </x:row>
+    <x:row r="14" spans="1:9" ht="49.149999999999999">
+      <x:c r="A14" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B14" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C14" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="D14" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E14" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="F14" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="G14" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="H14" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I14" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:9" ht="49.149999999999999">
+      <x:c r="A15" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B15" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="D15" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="E15" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="F15" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="G15" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H15" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="I15" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:9" ht="49.149999999999999">
+      <x:c r="A16" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B16" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="D16" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="E16" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="F16" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="G16" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="H16" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="I16" s="2" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="D7" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="E7" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="F7" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="G7" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="H7" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="I7" s="1" t="s">
+    </x:row>
+    <x:row r="17" spans="1:9" ht="49.149999999999999">
+      <x:c r="A17" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B17" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="D17" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="E17" s="2" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="J7" s="1"/>
-    </x:row>
-    <x:row r="8" spans="1:9">
-      <x:c r="A8" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B8" s="1" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="C8" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="D8" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="E8" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="F8" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="G8" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="H8" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="I8" t="s">
+      <x:c r="F17" s="2" t="s">
         <x:v>46</x:v>
       </x:c>
-    </x:row>
-    <x:row r="9" spans="1:10">
-      <x:c r="A9" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B9" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="C9" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="D9" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="E9" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="F9" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="G9" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="H9" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="I9" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="J9" s="1"/>
-    </x:row>
-    <x:row r="10" spans="1:9">
-      <x:c r="A10" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B10" s="1" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="C10" s="1" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="D10" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="E10" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="F10" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="G10" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="H10" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="I10" t="s">
-        <x:v>63</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:9">
-      <x:c r="A11" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="B11" s="1" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="C11" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="D11" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="E11" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="F11" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="G11" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="H11" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="I11" t="s">
-        <x:v>60</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:10">
-      <x:c r="A12" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B12" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C12" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="D12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="E12" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="F12" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="G12" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="H12" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="I12" s="1" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="J12" s="1"/>
-    </x:row>
-    <x:row r="13" spans="1:9">
-      <x:c r="A13" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B13" s="1" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C13" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="D13" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="E13" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="F13" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="G13" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="H13" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="I13" t="s">
-        <x:v>37</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:10">
-      <x:c r="A14" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B14" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="D14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="E14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="F14" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="G14" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="H14" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="I14" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="J14" s="1"/>
-    </x:row>
-    <x:row r="15" spans="1:10">
-      <x:c r="A15" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B15" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="C15" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="D15" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="E15" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="F15" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="G15" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="H15" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="I15" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="J15" s="1"/>
-    </x:row>
-    <x:row r="16" spans="1:10">
-      <x:c r="A16" t="s">
+      <x:c r="G17" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="H17" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="I17" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:9" ht="49.149999999999999">
+      <x:c r="A18" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="B16" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="C16" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="D16" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="E16" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="F16" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="G16" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="H16" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="I16" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="J16" s="1"/>
-    </x:row>
-    <x:row r="17" spans="1:10">
-      <x:c r="A17" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="B17" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="C17" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="D17" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="E17" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="F17" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="G17" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="H17" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="I17" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="J17" s="1"/>
-    </x:row>
-    <x:row r="18" spans="1:10">
-      <x:c r="A18" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="B18" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="C18" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="D18" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="E18" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="F18" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="G18" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="H18" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="I18" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="J18" s="1"/>
+      <x:c r="B18" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C18" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="D18" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E18" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="F18" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G18" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H18" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="I18" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>